--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,24 +58,24 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>особливый товар</t>
+  </si>
+  <si>
     <t>мелочь</t>
   </si>
   <si>
-    <t>особливый товар</t>
+    <t>серебреный товар</t>
   </si>
   <si>
     <t>деревенский товар</t>
   </si>
   <si>
-    <t>серебреный товар</t>
+    <t>небогатый товар</t>
   </si>
   <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
-  </si>
-  <si>
     <t>мясо</t>
   </si>
   <si>
@@ -85,71 +85,71 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
     <t>набойчатый товар</t>
   </si>
   <si>
     <t>щепетильный товар</t>
   </si>
   <si>
-    <t>пушной товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
+    <t>медный товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
   </si>
   <si>
     <t>внутренний товар</t>
   </si>
   <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
     <t>недорогой товар</t>
   </si>
   <si>
-    <t>медный товар</t>
-  </si>
-  <si>
     <t>привозный товар</t>
   </si>
   <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
     <t>оловянный товар</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
     <t>галантерейный товар</t>
   </si>
   <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
     <t>купецкий товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
-  </si>
-  <si>
     <t>меховой товар</t>
   </si>
   <si>
+    <t>рукодельный товар</t>
+  </si>
+  <si>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
     <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,424 +213,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Counts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>мелочный товар</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>шелковый товар</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>съестной припасы</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>бумажный товар</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>деревянный товар</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>крестьянский товар</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>москательный товар</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>мелкий товар</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>лавочный товар</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>рукоделие</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>шерстяной товар</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>красный товар</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>гарусный товар</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>мелочь</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>особливый товар</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>деревенский товар</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>серебреный товар</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>крамными товар</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>небогатый товар</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>мясо</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>железный товар</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>приуготовлять</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>набойчатый товар</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>щепетильный товар</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>пушной товар</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>нужный товар</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>внутренний товар</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>питейный припасы</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>недорогой товар</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>медный товар</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>привозный товар</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>оловянный товар</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>суровский товар</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>произрастание</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>галантерейный товар</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>купецкий товар</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>заморский товар</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>меховой товар</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>харчевой припасы</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>рукодельный товар</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>домовый товар</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>надлежащий товар</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="68075008"/>
-        <c:axId val="44394176"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="68075008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44394176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44394176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68075008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -743,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -919,24 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +520,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -952,7 +528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -960,7 +536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +552,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -984,7 +560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,7 +568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1104,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1152,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1160,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1192,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1200,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1264,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1274,6 +850,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -64,72 +64,78 @@
     <t>мелочь</t>
   </si>
   <si>
+    <t>деревенский товар</t>
+  </si>
+  <si>
     <t>серебреный товар</t>
   </si>
   <si>
-    <t>деревенский товар</t>
-  </si>
-  <si>
     <t>небогатый товар</t>
   </si>
   <si>
     <t>крамными товар</t>
   </si>
   <si>
+    <t>железный товар</t>
+  </si>
+  <si>
     <t>мясо</t>
   </si>
   <si>
-    <t>железный товар</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
     <t>пушной товар</t>
   </si>
   <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>нужный товар</t>
   </si>
   <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
-    <t>щепетильный товар</t>
+    <t>питейный припасы</t>
+  </si>
+  <si>
+    <t>внутренний товар</t>
   </si>
   <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
     <t>недорогой товар</t>
   </si>
   <si>
+    <t>оловянный товар</t>
+  </si>
+  <si>
     <t>привозный товар</t>
   </si>
   <si>
     <t>суровский товар</t>
   </si>
   <si>
-    <t>оловянный товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
     <t>галантерейный товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
-  </si>
-  <si>
     <t>купецкий товар</t>
   </si>
   <si>
+    <t>харчевой припасы</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
     <t>меховой товар</t>
   </si>
   <si>
@@ -137,12 +143,6 @@
   </si>
   <si>
     <t>домовый товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -70,12 +70,12 @@
     <t>серебреный товар</t>
   </si>
   <si>
+    <t>крамными товар</t>
+  </si>
+  <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
-  </si>
-  <si>
     <t>железный товар</t>
   </si>
   <si>
@@ -85,64 +85,64 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>щепетильный товар</t>
   </si>
   <si>
     <t>пушной товар</t>
   </si>
   <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
+    <t>недорогой товар</t>
+  </si>
+  <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>медный товар</t>
+  </si>
+  <si>
+    <t>внутренний товар</t>
   </si>
   <si>
     <t>питейный припасы</t>
   </si>
   <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>медный товар</t>
-  </si>
-  <si>
-    <t>недорогой товар</t>
-  </si>
-  <si>
     <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
     <t>заморский товар</t>
   </si>
   <si>
-    <t>галантерейный товар</t>
-  </si>
-  <si>
-    <t>купецкий товар</t>
+    <t>меховой товар</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
   </si>
   <si>
     <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>меховой товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -757,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,91 +58,91 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>мелочь</t>
+  </si>
+  <si>
     <t>особливый товар</t>
   </si>
   <si>
-    <t>мелочь</t>
+    <t>серебреный товар</t>
   </si>
   <si>
     <t>деревенский товар</t>
   </si>
   <si>
-    <t>серебреный товар</t>
+    <t>небогатый товар</t>
   </si>
   <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
+    <t>мясо</t>
   </si>
   <si>
     <t>железный товар</t>
   </si>
   <si>
-    <t>мясо</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>нужный товар</t>
   </si>
   <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
-    <t>пушной товар</t>
-  </si>
-  <si>
     <t>недорогой товар</t>
   </si>
   <si>
+    <t>внутренний товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
+  </si>
+  <si>
     <t>суровский товар</t>
   </si>
   <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
+    <t>привозный товар</t>
   </si>
   <si>
     <t>оловянный товар</t>
   </si>
   <si>
-    <t>привозный товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
     <t>галантерейный товар</t>
   </si>
   <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
     <t>купецкий товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
   </si>
   <si>
     <t>меховой товар</t>
   </si>
   <si>
+    <t>рукодельный товар</t>
+  </si>
+  <si>
     <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -64,12 +64,12 @@
     <t>особливый товар</t>
   </si>
   <si>
+    <t>деревенский товар</t>
+  </si>
+  <si>
     <t>серебреный товар</t>
   </si>
   <si>
-    <t>деревенский товар</t>
-  </si>
-  <si>
     <t>небогатый товар</t>
   </si>
   <si>
@@ -85,33 +85,33 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>щепетильный товар</t>
   </si>
   <si>
-    <t>пушной товар</t>
-  </si>
-  <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
+    <t>питейный припасы</t>
+  </si>
+  <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>медный товар</t>
+  </si>
+  <si>
+    <t>внутренний товар</t>
   </si>
   <si>
     <t>недорогой товар</t>
   </si>
   <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
-    <t>медный товар</t>
-  </si>
-  <si>
     <t>привозный товар</t>
   </si>
   <si>
@@ -121,13 +121,16 @@
     <t>произрастание</t>
   </si>
   <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
     <t>галантерейный товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
-  </si>
-  <si>
-    <t>купецкий товар</t>
+    <t>меховой товар</t>
   </si>
   <si>
     <t>домовый товар</t>
@@ -136,13 +139,10 @@
     <t>харчевой припасы</t>
   </si>
   <si>
-    <t>меховой товар</t>
+    <t>надлежащий товар</t>
   </si>
   <si>
     <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -64,12 +64,12 @@
     <t>особливый товар</t>
   </si>
   <si>
+    <t>серебреный товар</t>
+  </si>
+  <si>
     <t>деревенский товар</t>
   </si>
   <si>
-    <t>серебреный товар</t>
-  </si>
-  <si>
     <t>небогатый товар</t>
   </si>
   <si>
@@ -88,55 +88,55 @@
     <t>пушной товар</t>
   </si>
   <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>нужный товар</t>
   </si>
   <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
     <t>щепетильный товар</t>
   </si>
   <si>
+    <t>недорогой товар</t>
+  </si>
+  <si>
+    <t>внутренний товар</t>
+  </si>
+  <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>медный товар</t>
+  </si>
+  <si>
     <t>питейный припасы</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
-    <t>медный товар</t>
-  </si>
-  <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>недорогой товар</t>
+    <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
-    <t>оловянный товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
     <t>купецкий товар</t>
   </si>
   <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
     <t>заморский товар</t>
   </si>
   <si>
-    <t>галантерейный товар</t>
+    <t>харчевой припасы</t>
   </si>
   <si>
     <t>меховой товар</t>
   </si>
   <si>
     <t>домовый товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
   </si>
   <si>
     <t>надлежащий товар</t>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,24 +58,24 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>особливый товар</t>
+  </si>
+  <si>
     <t>мелочь</t>
   </si>
   <si>
-    <t>особливый товар</t>
-  </si>
-  <si>
     <t>серебреный товар</t>
   </si>
   <si>
     <t>деревенский товар</t>
   </si>
   <si>
+    <t>крамными товар</t>
+  </si>
+  <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
-  </si>
-  <si>
     <t>мясо</t>
   </si>
   <si>
@@ -85,64 +85,64 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
     <t>пушной товар</t>
   </si>
   <si>
-    <t>набойчатый товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
-  </si>
-  <si>
-    <t>щепетильный товар</t>
+    <t>медный товар</t>
   </si>
   <si>
     <t>недорогой товар</t>
   </si>
   <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
+  </si>
+  <si>
     <t>внутренний товар</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
-    <t>медный товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
     <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
     <t>произрастание</t>
   </si>
   <si>
     <t>купецкий товар</t>
   </si>
   <si>
-    <t>галантерейный товар</t>
-  </si>
-  <si>
-    <t>заморский товар</t>
+    <t>домовый товар</t>
   </si>
   <si>
     <t>харчевой припасы</t>
   </si>
   <si>
+    <t>рукодельный товар</t>
+  </si>
+  <si>
     <t>меховой товар</t>
   </si>
   <si>
-    <t>домовый товар</t>
-  </si>
-  <si>
     <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -70,12 +70,12 @@
     <t>деревенский товар</t>
   </si>
   <si>
+    <t>небогатый товар</t>
+  </si>
+  <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
-  </si>
-  <si>
     <t>мясо</t>
   </si>
   <si>
@@ -97,52 +97,52 @@
     <t>пушной товар</t>
   </si>
   <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>недорогой товар</t>
+  </si>
+  <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>недорогой товар</t>
-  </si>
-  <si>
-    <t>суровский товар</t>
+    <t>внутренний товар</t>
   </si>
   <si>
     <t>питейный припасы</t>
   </si>
   <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
     <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
+    <t>произрастание</t>
+  </si>
+  <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
     <t>заморский товар</t>
   </si>
   <si>
-    <t>галантерейный товар</t>
-  </si>
-  <si>
-    <t>произрастание</t>
-  </si>
-  <si>
-    <t>купецкий товар</t>
+    <t>меховой товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
   </si>
   <si>
     <t>домовый товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>меховой товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,33 +58,36 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>мелочь</t>
+  </si>
+  <si>
     <t>особливый товар</t>
   </si>
   <si>
-    <t>мелочь</t>
+    <t>деревенский товар</t>
   </si>
   <si>
     <t>серебреный товар</t>
   </si>
   <si>
-    <t>деревенский товар</t>
+    <t>крамными товар</t>
   </si>
   <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
+    <t>железный товар</t>
   </si>
   <si>
     <t>мясо</t>
   </si>
   <si>
-    <t>железный товар</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
     <t>щепетильный товар</t>
   </si>
   <si>
@@ -94,55 +97,52 @@
     <t>набойчатый товар</t>
   </si>
   <si>
-    <t>пушной товар</t>
-  </si>
-  <si>
     <t>суровский товар</t>
   </si>
   <si>
     <t>недорогой товар</t>
   </si>
   <si>
+    <t>внутренний товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
+  </si>
+  <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
+    <t>привозный товар</t>
   </si>
   <si>
     <t>оловянный товар</t>
   </si>
   <si>
-    <t>привозный товар</t>
-  </si>
-  <si>
     <t>произрастание</t>
   </si>
   <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
     <t>галантерейный товар</t>
   </si>
   <si>
-    <t>купецкий товар</t>
-  </si>
-  <si>
-    <t>заморский товар</t>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
   </si>
   <si>
     <t>меховой товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -70,45 +70,45 @@
     <t>серебреный товар</t>
   </si>
   <si>
+    <t>небогатый товар</t>
+  </si>
+  <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
+    <t>мясо</t>
   </si>
   <si>
     <t>железный товар</t>
   </si>
   <si>
-    <t>мясо</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
     <t>пушной товар</t>
   </si>
   <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
-  </si>
-  <si>
-    <t>набойчатый товар</t>
+    <t>внутренний товар</t>
+  </si>
+  <si>
+    <t>недорогой товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
   </si>
   <si>
     <t>суровский товар</t>
   </si>
   <si>
-    <t>недорогой товар</t>
-  </si>
-  <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
     <t>медный товар</t>
   </si>
   <si>
@@ -121,28 +121,28 @@
     <t>произрастание</t>
   </si>
   <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
     <t>заморский товар</t>
   </si>
   <si>
-    <t>купецкий товар</t>
-  </si>
-  <si>
-    <t>галантерейный товар</t>
+    <t>меховой товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
+  </si>
+  <si>
+    <t>домовый товар</t>
   </si>
   <si>
     <t>надлежащий товар</t>
   </si>
   <si>
-    <t>домовый товар</t>
-  </si>
-  <si>
     <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>меховой товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,24 +58,24 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>особливый товар</t>
+  </si>
+  <si>
     <t>мелочь</t>
   </si>
   <si>
-    <t>особливый товар</t>
-  </si>
-  <si>
     <t>деревенский товар</t>
   </si>
   <si>
     <t>серебреный товар</t>
   </si>
   <si>
+    <t>крамными товар</t>
+  </si>
+  <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
-  </si>
-  <si>
     <t>мясо</t>
   </si>
   <si>
@@ -85,49 +85,55 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
     <t>набойчатый товар</t>
   </si>
   <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
-    <t>нужный товар</t>
-  </si>
-  <si>
-    <t>пушной товар</t>
+    <t>медный товар</t>
+  </si>
+  <si>
+    <t>недорогой товар</t>
   </si>
   <si>
     <t>внутренний товар</t>
   </si>
   <si>
-    <t>недорогой товар</t>
-  </si>
-  <si>
     <t>питейный припасы</t>
   </si>
   <si>
     <t>суровский товар</t>
   </si>
   <si>
-    <t>медный товар</t>
+    <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
-    <t>оловянный товар</t>
+    <t>купецкий товар</t>
+  </si>
+  <si>
+    <t>заморский товар</t>
   </si>
   <si>
     <t>произрастание</t>
   </si>
   <si>
-    <t>купецкий товар</t>
-  </si>
-  <si>
     <t>галантерейный товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
   </si>
   <si>
     <t>меховой товар</t>
@@ -137,12 +143,6 @@
   </si>
   <si>
     <t>домовый товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,76 +58,82 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>мелочь</t>
+  </si>
+  <si>
     <t>особливый товар</t>
   </si>
   <si>
-    <t>мелочь</t>
+    <t>серебреный товар</t>
   </si>
   <si>
     <t>деревенский товар</t>
   </si>
   <si>
-    <t>серебреный товар</t>
+    <t>небогатый товар</t>
   </si>
   <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
+    <t>железный товар</t>
   </si>
   <si>
     <t>мясо</t>
   </si>
   <si>
-    <t>железный товар</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>набойчатый товар</t>
+  </si>
+  <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
     <t>щепетильный товар</t>
   </si>
   <si>
     <t>пушной товар</t>
   </si>
   <si>
-    <t>нужный товар</t>
-  </si>
-  <si>
-    <t>набойчатый товар</t>
+    <t>суровский товар</t>
+  </si>
+  <si>
+    <t>недорогой товар</t>
   </si>
   <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>недорогой товар</t>
-  </si>
-  <si>
     <t>внутренний товар</t>
   </si>
   <si>
     <t>питейный припасы</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
     <t>оловянный товар</t>
   </si>
   <si>
     <t>привозный товар</t>
   </si>
   <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
+    <t>произрастание</t>
+  </si>
+  <si>
     <t>купецкий товар</t>
   </si>
   <si>
-    <t>заморский товар</t>
-  </si>
-  <si>
-    <t>произрастание</t>
-  </si>
-  <si>
-    <t>галантерейный товар</t>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
   </si>
   <si>
     <t>надлежащий товар</t>
@@ -137,12 +143,6 @@
   </si>
   <si>
     <t>меховой товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -70,12 +70,12 @@
     <t>деревенский товар</t>
   </si>
   <si>
+    <t>крамными товар</t>
+  </si>
+  <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
-  </si>
-  <si>
     <t>железный товар</t>
   </si>
   <si>
@@ -85,33 +85,33 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>нужный товар</t>
+  </si>
+  <si>
+    <t>пушной товар</t>
+  </si>
+  <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
     <t>набойчатый товар</t>
   </si>
   <si>
-    <t>нужный товар</t>
-  </si>
-  <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
-    <t>пушной товар</t>
+    <t>медный товар</t>
   </si>
   <si>
     <t>суровский товар</t>
   </si>
   <si>
+    <t>питейный припасы</t>
+  </si>
+  <si>
+    <t>внутренний товар</t>
+  </si>
+  <si>
     <t>недорогой товар</t>
   </si>
   <si>
-    <t>медный товар</t>
-  </si>
-  <si>
-    <t>внутренний товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
     <t>оловянный товар</t>
   </si>
   <si>
@@ -121,28 +121,28 @@
     <t>галантерейный товар</t>
   </si>
   <si>
+    <t>произрастание</t>
+  </si>
+  <si>
+    <t>купецкий товар</t>
+  </si>
+  <si>
     <t>заморский товар</t>
   </si>
   <si>
-    <t>произрастание</t>
-  </si>
-  <si>
-    <t>купецкий товар</t>
+    <t>меховой товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
   </si>
   <si>
     <t>домовый товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>меховой товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,64 +58,67 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>особливый товар</t>
+  </si>
+  <si>
     <t>мелочь</t>
   </si>
   <si>
-    <t>особливый товар</t>
+    <t>деревенский товар</t>
   </si>
   <si>
     <t>серебреный товар</t>
   </si>
   <si>
-    <t>деревенский товар</t>
+    <t>небогатый товар</t>
   </si>
   <si>
     <t>крамными товар</t>
   </si>
   <si>
-    <t>небогатый товар</t>
+    <t>мясо</t>
   </si>
   <si>
     <t>железный товар</t>
   </si>
   <si>
-    <t>мясо</t>
-  </si>
-  <si>
     <t>приуготовлять</t>
   </si>
   <si>
     <t>нужный товар</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
     <t>пушной товар</t>
   </si>
   <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
     <t>набойчатый товар</t>
   </si>
   <si>
+    <t>недорогой товар</t>
+  </si>
+  <si>
+    <t>питейный припасы</t>
+  </si>
+  <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
     <t>медный товар</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
-    <t>питейный припасы</t>
-  </si>
-  <si>
     <t>внутренний товар</t>
   </si>
   <si>
-    <t>недорогой товар</t>
+    <t>привозный товар</t>
   </si>
   <si>
     <t>оловянный товар</t>
   </si>
   <si>
-    <t>привозный товар</t>
+    <t>купецкий товар</t>
   </si>
   <si>
     <t>галантерейный товар</t>
@@ -124,25 +127,22 @@
     <t>произрастание</t>
   </si>
   <si>
-    <t>купецкий товар</t>
-  </si>
-  <si>
     <t>заморский товар</t>
   </si>
   <si>
+    <t>домовый товар</t>
+  </si>
+  <si>
+    <t>надлежащий товар</t>
+  </si>
+  <si>
+    <t>рукодельный товар</t>
+  </si>
+  <si>
+    <t>харчевой припасы</t>
+  </si>
+  <si>
     <t>меховой товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
-  </si>
-  <si>
-    <t>надлежащий товар</t>
-  </si>
-  <si>
-    <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>домовый товар</t>
   </si>
 </sst>
 </file>

--- a/nlp/gen_goods.xlsx
+++ b/nlp/gen_goods.xlsx
@@ -58,24 +58,24 @@
     <t>гарусный товар</t>
   </si>
   <si>
+    <t>мелочь</t>
+  </si>
+  <si>
     <t>особливый товар</t>
   </si>
   <si>
-    <t>мелочь</t>
+    <t>серебреный товар</t>
   </si>
   <si>
     <t>деревенский товар</t>
   </si>
   <si>
-    <t>серебреный товар</t>
+    <t>крамными товар</t>
   </si>
   <si>
     <t>небогатый товар</t>
   </si>
   <si>
-    <t>крамными товар</t>
-  </si>
-  <si>
     <t>мясо</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>приуготовлять</t>
   </si>
   <si>
+    <t>щепетильный товар</t>
+  </si>
+  <si>
     <t>нужный товар</t>
   </si>
   <si>
-    <t>щепетильный товар</t>
-  </si>
-  <si>
     <t>пушной товар</t>
   </si>
   <si>
@@ -100,15 +100,15 @@
     <t>недорогой товар</t>
   </si>
   <si>
+    <t>медный товар</t>
+  </si>
+  <si>
+    <t>суровский товар</t>
+  </si>
+  <si>
     <t>питейный припасы</t>
   </si>
   <si>
-    <t>суровский товар</t>
-  </si>
-  <si>
-    <t>медный товар</t>
-  </si>
-  <si>
     <t>внутренний товар</t>
   </si>
   <si>
@@ -118,28 +118,28 @@
     <t>оловянный товар</t>
   </si>
   <si>
+    <t>произрастание</t>
+  </si>
+  <si>
+    <t>заморский товар</t>
+  </si>
+  <si>
+    <t>галантерейный товар</t>
+  </si>
+  <si>
     <t>купецкий товар</t>
   </si>
   <si>
-    <t>галантерейный товар</t>
-  </si>
-  <si>
-    <t>произрастание</t>
-  </si>
-  <si>
-    <t>заморский товар</t>
+    <t>надлежащий товар</t>
   </si>
   <si>
     <t>домовый товар</t>
   </si>
   <si>
-    <t>надлежащий товар</t>
+    <t>харчевой припасы</t>
   </si>
   <si>
     <t>рукодельный товар</t>
-  </si>
-  <si>
-    <t>харчевой припасы</t>
   </si>
   <si>
     <t>меховой товар</t>
